--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value727.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value727.xlsx
@@ -354,7 +354,7 @@
         <v>1.759305839460392</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.899903821366191</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value727.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value727.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172286079251922</v>
+        <v>1.092652440071106</v>
       </c>
       <c r="B1">
-        <v>1.759305839460392</v>
+        <v>1.733769774436951</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.899903821366191</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.052395432132736</v>
+        <v>1.195434808731079</v>
       </c>
     </row>
   </sheetData>
